--- a/data/trans_orig/P17D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1143897-6D5E-40DB-81DF-D340464740AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E9E35A-A560-420C-A3E4-E6F06727313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{132E40C1-72DD-4046-8EC4-FE02DB7ED0E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D36147C1-A376-4B64-A5E2-89B5BC9B35EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="762">
   <si>
     <t>Población según el motivo principal de la última consulta médica en 2007 (Tasa respuesta: 25,82%)</t>
   </si>
@@ -1865,496 +1865,466 @@
     <t>Población según el motivo principal de la última consulta médica en 2023 (Tasa respuesta: 23,58%)</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>6,92%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
   </si>
 </sst>
 </file>
@@ -2766,7 +2736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F24B14-1329-41EE-B2B6-DBB7BF83F27B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADE922C-A165-4AFF-A9CB-CFFF61EA0D8B}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4945,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2437A05-F2FC-47B2-97FE-2BD1EAD88654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3842ED65-0C88-4858-B3FD-88F60AE3BE9E}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7124,7 +7094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A69E1-431A-4070-8CDB-E6EB1D546103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD89476-F893-4D9D-8FBC-93B8E8523D21}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7719,7 +7689,7 @@
         <v>375</v>
       </c>
       <c r="I13" s="7">
-        <v>420364</v>
+        <v>420365</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>79</v>
@@ -9303,7 +9273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120EA5DA-9C41-45E7-B769-A2CDA7304391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD2485-4A91-45C9-9CAF-F99DA62DA0B1}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9424,46 +9394,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2284</v>
+        <v>2190</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>608</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>13033</v>
+        <v>12017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>611</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>15317</v>
+        <v>14207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9475,46 +9445,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3941</v>
+        <v>3674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>376</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>636</v>
+        <v>545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>548</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>4577</v>
+        <v>4219</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>615</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>616</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9526,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>10874</v>
+        <v>9889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>617</v>
@@ -9541,7 +9511,7 @@
         <v>52</v>
       </c>
       <c r="I6" s="7">
-        <v>29842</v>
+        <v>26567</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>620</v>
@@ -9556,13 +9526,13 @@
         <v>67</v>
       </c>
       <c r="N6" s="7">
-        <v>40716</v>
+        <v>36455</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>101</v>
+        <v>623</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>623</v>
+        <v>530</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>624</v>
@@ -9628,46 +9598,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1103</v>
+        <v>1056</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>585</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1537</v>
+        <v>1465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>542</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9745,10 +9715,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1021</v>
+        <v>852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>628</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
@@ -9760,16 +9730,16 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1021</v>
+        <v>852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,7 +9751,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>58468</v>
+        <v>54073</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>630</v>
@@ -9796,7 +9766,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="7">
-        <v>109255</v>
+        <v>93836</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>633</v>
@@ -9811,7 +9781,7 @@
         <v>246</v>
       </c>
       <c r="N11" s="7">
-        <v>167722</v>
+        <v>147909</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>636</v>
@@ -9832,7 +9802,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>68840</v>
+        <v>66630</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>639</v>
@@ -9841,37 +9811,37 @@
         <v>640</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="H12" s="7">
         <v>195</v>
       </c>
       <c r="I12" s="7">
-        <v>112101</v>
+        <v>103377</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="M12" s="7">
         <v>282</v>
       </c>
       <c r="N12" s="7">
-        <v>180941</v>
+        <v>170006</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,7 +9853,7 @@
         <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>145510</v>
+        <v>137512</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -9898,7 +9868,7 @@
         <v>441</v>
       </c>
       <c r="I13" s="7">
-        <v>266321</v>
+        <v>237602</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>79</v>
@@ -9913,7 +9883,7 @@
         <v>628</v>
       </c>
       <c r="N13" s="7">
-        <v>411831</v>
+        <v>375114</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>79</v>
@@ -9936,13 +9906,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>22253</v>
+        <v>21706</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>649</v>
@@ -9951,7 +9921,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>22407</v>
+        <v>20643</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>650</v>
@@ -9966,16 +9936,16 @@
         <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>44660</v>
+        <v>42350</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>523</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9987,46 +9957,46 @@
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>9447</v>
+        <v>9571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>612</v>
+        <v>163</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>7541</v>
+        <v>7190</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>655</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>537</v>
+        <v>275</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>616</v>
+        <v>439</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
       </c>
       <c r="N15" s="7">
-        <v>16988</v>
+        <v>16761</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>656</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>400</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10038,46 +10008,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>24808</v>
+        <v>23041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>659</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>19877</v>
+        <v>18212</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>44685</v>
+        <v>41253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>661</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,31 +10074,31 @@
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2024</v>
+        <v>1889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2024</v>
+        <v>1889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>665</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10140,46 +10110,46 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2945</v>
+        <v>2732</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>627</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>3409</v>
+        <v>3211</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>667</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>413</v>
+        <v>589</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>668</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>6354</v>
+        <v>5944</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>500</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10206,31 +10176,31 @@
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>7560</v>
+        <v>7112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>669</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>7560</v>
+        <v>7112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>669</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10257,22 +10227,22 @@
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>665</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>243</v>
@@ -10293,46 +10263,46 @@
         <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>141998</v>
+        <v>133063</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>670</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H21" s="7">
         <v>228</v>
       </c>
       <c r="I21" s="7">
-        <v>154813</v>
+        <v>139629</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="M21" s="7">
         <v>383</v>
       </c>
       <c r="N21" s="7">
-        <v>296812</v>
+        <v>272692</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10344,46 +10314,46 @@
         <v>167</v>
       </c>
       <c r="D22" s="7">
-        <v>184179</v>
+        <v>179545</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="H22" s="7">
         <v>346</v>
       </c>
       <c r="I22" s="7">
-        <v>269512</v>
+        <v>303680</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M22" s="7">
         <v>513</v>
       </c>
       <c r="N22" s="7">
-        <v>453691</v>
+        <v>483224</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10395,7 +10365,7 @@
         <v>379</v>
       </c>
       <c r="D23" s="7">
-        <v>385630</v>
+        <v>369658</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>79</v>
@@ -10410,7 +10380,7 @@
         <v>666</v>
       </c>
       <c r="I23" s="7">
-        <v>487937</v>
+        <v>502340</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>79</v>
@@ -10425,7 +10395,7 @@
         <v>1045</v>
       </c>
       <c r="N23" s="7">
-        <v>873568</v>
+        <v>871998</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>79</v>
@@ -10448,43 +10418,43 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3815</v>
+        <v>4704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>688</v>
+        <v>570</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>4818</v>
+        <v>4495</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>548</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>8634</v>
+        <v>9198</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>286</v>
+        <v>690</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>691</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>692</v>
@@ -10499,13 +10469,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>5315</v>
+        <v>5457</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>693</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>216</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>694</v>
@@ -10514,31 +10484,31 @@
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>6264</v>
+        <v>5732</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>668</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>11579</v>
+        <v>11189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>698</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10550,13 +10520,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>6456</v>
+        <v>5959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>698</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>699</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>700</v>
@@ -10565,31 +10535,31 @@
         <v>15</v>
       </c>
       <c r="I26" s="7">
-        <v>10060</v>
+        <v>9102</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>16515</v>
+        <v>15061</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>702</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10601,16 +10571,16 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>275</v>
+        <v>705</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>305</v>
+        <v>706</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10631,16 +10601,16 @@
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>706</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10652,46 +10622,46 @@
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>2665</v>
+        <v>2772</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>707</v>
+        <v>240</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>708</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>2108</v>
+        <v>1945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>709</v>
+        <v>238</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>710</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>711</v>
+        <v>212</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>4774</v>
+        <v>4718</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>275</v>
+        <v>667</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>713</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10712,37 +10682,37 @@
         <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>3890</v>
+        <v>3640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>716</v>
+        <v>654</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>3890</v>
+        <v>3640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>498</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10763,37 +10733,37 @@
         <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>2671</v>
+        <v>2595</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>2671</v>
+        <v>2595</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>711</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10805,46 +10775,46 @@
         <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>54169</v>
+        <v>51751</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>722</v>
+        <v>418</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="H31" s="7">
         <v>76</v>
       </c>
       <c r="I31" s="7">
-        <v>49322</v>
+        <v>45578</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
       </c>
       <c r="N31" s="7">
-        <v>103491</v>
+        <v>97329</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10856,46 +10826,46 @@
         <v>64</v>
       </c>
       <c r="D32" s="7">
-        <v>62239</v>
+        <v>60371</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
       </c>
       <c r="I32" s="7">
-        <v>85752</v>
+        <v>80369</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="M32" s="7">
         <v>187</v>
       </c>
       <c r="N32" s="7">
-        <v>147990</v>
+        <v>140741</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>735</v>
+        <v>514</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>736</v>
+        <v>557</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10907,7 +10877,7 @@
         <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>135470</v>
+        <v>131827</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>79</v>
@@ -10922,7 +10892,7 @@
         <v>238</v>
       </c>
       <c r="I33" s="7">
-        <v>164885</v>
+        <v>153456</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>79</v>
@@ -10937,7 +10907,7 @@
         <v>382</v>
       </c>
       <c r="N33" s="7">
-        <v>300354</v>
+        <v>285284</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>79</v>
@@ -10960,46 +10930,46 @@
         <v>28</v>
       </c>
       <c r="D34" s="7">
-        <v>28353</v>
+        <v>28601</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>739</v>
+        <v>478</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>740</v>
+        <v>523</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
       </c>
       <c r="I34" s="7">
-        <v>40258</v>
+        <v>37155</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>618</v>
+        <v>361</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
       </c>
       <c r="N34" s="7">
-        <v>68611</v>
+        <v>65755</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>498</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11011,46 +10981,46 @@
         <v>17</v>
       </c>
       <c r="D35" s="7">
-        <v>18703</v>
+        <v>18701</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>86</v>
+        <v>688</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
       </c>
       <c r="I35" s="7">
-        <v>14442</v>
+        <v>13467</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>441</v>
+        <v>732</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="M35" s="7">
         <v>36</v>
       </c>
       <c r="N35" s="7">
-        <v>33145</v>
+        <v>32168</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>745</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11062,46 +11032,46 @@
         <v>46</v>
       </c>
       <c r="D36" s="7">
-        <v>42138</v>
+        <v>38889</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>477</v>
+        <v>733</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="H36" s="7">
         <v>97</v>
       </c>
       <c r="I36" s="7">
-        <v>59779</v>
+        <v>53880</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>750</v>
+        <v>322</v>
       </c>
       <c r="M36" s="7">
         <v>143</v>
       </c>
       <c r="N36" s="7">
-        <v>101916</v>
+        <v>92770</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>751</v>
+        <v>544</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11113,28 +11083,28 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>740</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>417</v>
+        <v>537</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>2024</v>
+        <v>1889</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>28</v>
+        <v>589</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>753</v>
+        <v>665</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>275</v>
@@ -11143,16 +11113,16 @@
         <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>2834</v>
+        <v>2702</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>741</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11164,46 +11134,46 @@
         <v>7</v>
       </c>
       <c r="D38" s="7">
-        <v>6713</v>
+        <v>6560</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>314</v>
+        <v>742</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>495</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
       </c>
       <c r="I38" s="7">
-        <v>5951</v>
+        <v>5565</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>27</v>
+        <v>705</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>710</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="M38" s="7">
         <v>17</v>
       </c>
       <c r="N38" s="7">
-        <v>12664</v>
+        <v>12126</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>29</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11230,31 +11200,31 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>11450</v>
+        <v>10752</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>129</v>
+        <v>744</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>14</v>
+        <v>745</v>
       </c>
       <c r="M39" s="7">
         <v>12</v>
       </c>
       <c r="N39" s="7">
-        <v>11450</v>
+        <v>10752</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>574</v>
+        <v>239</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>43</v>
+        <v>628</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11281,22 +11251,22 @@
         <v>5</v>
       </c>
       <c r="I40" s="7">
-        <v>4486</v>
+        <v>4221</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>499</v>
+        <v>232</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>29</v>
+        <v>708</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
       </c>
       <c r="N40" s="7">
-        <v>4486</v>
+        <v>4221</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>41</v>
@@ -11317,46 +11287,46 @@
         <v>293</v>
       </c>
       <c r="D41" s="7">
-        <v>254635</v>
+        <v>238886</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>755</v>
+        <v>37</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="H41" s="7">
         <v>473</v>
       </c>
       <c r="I41" s="7">
-        <v>313390</v>
+        <v>279044</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="M41" s="7">
         <v>766</v>
       </c>
       <c r="N41" s="7">
-        <v>568025</v>
+        <v>517930</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11368,46 +11338,46 @@
         <v>318</v>
       </c>
       <c r="D42" s="7">
-        <v>315257</v>
+        <v>306546</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>602</v>
+        <v>756</v>
       </c>
       <c r="H42" s="7">
         <v>664</v>
       </c>
       <c r="I42" s="7">
-        <v>467365</v>
+        <v>487426</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>766</v>
+        <v>351</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="M42" s="7">
         <v>982</v>
       </c>
       <c r="N42" s="7">
-        <v>782622</v>
+        <v>793972</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11419,7 +11389,7 @@
         <v>710</v>
       </c>
       <c r="D43" s="7">
-        <v>666610</v>
+        <v>638997</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>79</v>
@@ -11434,7 +11404,7 @@
         <v>1345</v>
       </c>
       <c r="I43" s="7">
-        <v>919143</v>
+        <v>893399</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>79</v>
@@ -11449,7 +11419,7 @@
         <v>2055</v>
       </c>
       <c r="N43" s="7">
-        <v>1585753</v>
+        <v>1532396</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>79</v>
